--- a/Bases_de_Dados_(2022-2023)/Republic of Ireland Premier Division_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Republic of Ireland Premier Division_2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="271">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -593,6 +593,9 @@
   </si>
   <si>
     <t>['28']</t>
+  </si>
+  <si>
+    <t>['38']</t>
   </si>
   <si>
     <t>['41', '79']</t>
@@ -1185,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK175"/>
+  <dimension ref="A1:BK176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1429,7 +1432,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1519,7 +1522,7 @@
         <v>2.28</v>
       </c>
       <c r="AT2">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1620,7 +1623,7 @@
         <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -1898,7 +1901,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT4">
         <v>0.67</v>
@@ -2002,7 +2005,7 @@
         <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -2193,7 +2196,7 @@
         <v>79</v>
       </c>
       <c r="P6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -2384,7 +2387,7 @@
         <v>76</v>
       </c>
       <c r="P7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2575,7 +2578,7 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -3721,7 +3724,7 @@
         <v>83</v>
       </c>
       <c r="P14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q14">
         <v>10</v>
@@ -3808,7 +3811,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT14">
         <v>0.61</v>
@@ -3912,7 +3915,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4103,7 +4106,7 @@
         <v>76</v>
       </c>
       <c r="P16" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4193,7 +4196,7 @@
         <v>1.17</v>
       </c>
       <c r="AT16">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU16">
         <v>1.44</v>
@@ -5058,7 +5061,7 @@
         <v>76</v>
       </c>
       <c r="P21" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5336,7 +5339,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT22">
         <v>1.11</v>
@@ -5440,7 +5443,7 @@
         <v>76</v>
       </c>
       <c r="P23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5631,7 +5634,7 @@
         <v>89</v>
       </c>
       <c r="P24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -6586,7 +6589,7 @@
         <v>93</v>
       </c>
       <c r="P29" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -7159,7 +7162,7 @@
         <v>76</v>
       </c>
       <c r="P32" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7350,7 +7353,7 @@
         <v>96</v>
       </c>
       <c r="P33" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q33">
         <v>13</v>
@@ -7437,7 +7440,7 @@
         <v>2.33</v>
       </c>
       <c r="AS33">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT33">
         <v>1.18</v>
@@ -7732,7 +7735,7 @@
         <v>97</v>
       </c>
       <c r="P35" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7923,7 +7926,7 @@
         <v>98</v>
       </c>
       <c r="P36" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8013,7 +8016,7 @@
         <v>1.35</v>
       </c>
       <c r="AT36">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU36">
         <v>1.74</v>
@@ -8305,7 +8308,7 @@
         <v>76</v>
       </c>
       <c r="P38" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8496,7 +8499,7 @@
         <v>76</v>
       </c>
       <c r="P39" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8586,7 +8589,7 @@
         <v>0.82</v>
       </c>
       <c r="AT39">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU39">
         <v>1.14</v>
@@ -8687,7 +8690,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -8878,7 +8881,7 @@
         <v>76</v>
       </c>
       <c r="P41" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9069,7 +9072,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9260,7 +9263,7 @@
         <v>102</v>
       </c>
       <c r="P43" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9642,7 +9645,7 @@
         <v>103</v>
       </c>
       <c r="P45" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -9732,7 +9735,7 @@
         <v>0.72</v>
       </c>
       <c r="AT45">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU45">
         <v>1.35</v>
@@ -9833,7 +9836,7 @@
         <v>104</v>
       </c>
       <c r="P46" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -10024,7 +10027,7 @@
         <v>76</v>
       </c>
       <c r="P47" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10406,7 +10409,7 @@
         <v>106</v>
       </c>
       <c r="P49" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -10597,7 +10600,7 @@
         <v>107</v>
       </c>
       <c r="P50" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10875,7 +10878,7 @@
         <v>1.5</v>
       </c>
       <c r="AS51">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT51">
         <v>1.56</v>
@@ -10979,7 +10982,7 @@
         <v>109</v>
       </c>
       <c r="P52" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11170,7 +11173,7 @@
         <v>110</v>
       </c>
       <c r="P53" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11639,7 +11642,7 @@
         <v>0.8</v>
       </c>
       <c r="AS55">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT55">
         <v>1.12</v>
@@ -11833,7 +11836,7 @@
         <v>1.41</v>
       </c>
       <c r="AT56">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU56">
         <v>1.47</v>
@@ -12316,7 +12319,7 @@
         <v>114</v>
       </c>
       <c r="P59" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12507,7 +12510,7 @@
         <v>115</v>
       </c>
       <c r="P60" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q60">
         <v>9</v>
@@ -12698,7 +12701,7 @@
         <v>116</v>
       </c>
       <c r="P61" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q61">
         <v>10</v>
@@ -13271,7 +13274,7 @@
         <v>76</v>
       </c>
       <c r="P64" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13361,7 +13364,7 @@
         <v>1.76</v>
       </c>
       <c r="AT64">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU64">
         <v>1.69</v>
@@ -13462,7 +13465,7 @@
         <v>119</v>
       </c>
       <c r="P65" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -13844,7 +13847,7 @@
         <v>121</v>
       </c>
       <c r="P67" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -14226,7 +14229,7 @@
         <v>76</v>
       </c>
       <c r="P69" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14417,7 +14420,7 @@
         <v>123</v>
       </c>
       <c r="P70" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14695,7 +14698,7 @@
         <v>0.83</v>
       </c>
       <c r="AS71">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT71">
         <v>0.41</v>
@@ -15077,7 +15080,7 @@
         <v>1.57</v>
       </c>
       <c r="AS73">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT73">
         <v>1.18</v>
@@ -15650,10 +15653,10 @@
         <v>2.43</v>
       </c>
       <c r="AS76">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT76">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU76">
         <v>1.96</v>
@@ -16136,7 +16139,7 @@
         <v>76</v>
       </c>
       <c r="P79" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q79">
         <v>2</v>
@@ -16518,7 +16521,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q81">
         <v>5</v>
@@ -16709,7 +16712,7 @@
         <v>131</v>
       </c>
       <c r="P82" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16900,7 +16903,7 @@
         <v>132</v>
       </c>
       <c r="P83" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -17282,7 +17285,7 @@
         <v>134</v>
       </c>
       <c r="P85" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17372,7 +17375,7 @@
         <v>1.78</v>
       </c>
       <c r="AT85">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU85">
         <v>1.65</v>
@@ -17855,7 +17858,7 @@
         <v>76</v>
       </c>
       <c r="P88" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q88">
         <v>7</v>
@@ -18046,7 +18049,7 @@
         <v>137</v>
       </c>
       <c r="P89" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -18237,7 +18240,7 @@
         <v>138</v>
       </c>
       <c r="P90" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18897,7 +18900,7 @@
         <v>1.75</v>
       </c>
       <c r="AS93">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT93">
         <v>1.18</v>
@@ -19192,7 +19195,7 @@
         <v>141</v>
       </c>
       <c r="P95" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q95">
         <v>8</v>
@@ -20043,7 +20046,7 @@
         <v>1.11</v>
       </c>
       <c r="AS99">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT99">
         <v>1.11</v>
@@ -20147,7 +20150,7 @@
         <v>76</v>
       </c>
       <c r="P100" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q100">
         <v>2</v>
@@ -20237,7 +20240,7 @@
         <v>0.82</v>
       </c>
       <c r="AT100">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU100">
         <v>0.97</v>
@@ -20720,7 +20723,7 @@
         <v>146</v>
       </c>
       <c r="P103" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -20911,7 +20914,7 @@
         <v>147</v>
       </c>
       <c r="P104" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q104">
         <v>1</v>
@@ -21102,7 +21105,7 @@
         <v>148</v>
       </c>
       <c r="P105" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -21192,7 +21195,7 @@
         <v>1.35</v>
       </c>
       <c r="AT105">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU105">
         <v>1.51</v>
@@ -21866,7 +21869,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q109">
         <v>1</v>
@@ -22057,7 +22060,7 @@
         <v>152</v>
       </c>
       <c r="P110" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q110">
         <v>9</v>
@@ -22439,7 +22442,7 @@
         <v>154</v>
       </c>
       <c r="P112" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22630,7 +22633,7 @@
         <v>76</v>
       </c>
       <c r="P113" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -23012,7 +23015,7 @@
         <v>107</v>
       </c>
       <c r="P115" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23102,7 +23105,7 @@
         <v>0.72</v>
       </c>
       <c r="AT115">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU115">
         <v>1.27</v>
@@ -23203,7 +23206,7 @@
         <v>76</v>
       </c>
       <c r="P116" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q116">
         <v>9</v>
@@ -23585,7 +23588,7 @@
         <v>76</v>
       </c>
       <c r="P118" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23863,7 +23866,7 @@
         <v>0.64</v>
       </c>
       <c r="AS119">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT119">
         <v>0.61</v>
@@ -23967,7 +23970,7 @@
         <v>157</v>
       </c>
       <c r="P120" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24158,7 +24161,7 @@
         <v>147</v>
       </c>
       <c r="P121" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24248,7 +24251,7 @@
         <v>2.28</v>
       </c>
       <c r="AT121">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU121">
         <v>1.61</v>
@@ -24731,7 +24734,7 @@
         <v>160</v>
       </c>
       <c r="P124" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -24922,7 +24925,7 @@
         <v>161</v>
       </c>
       <c r="P125" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q125">
         <v>8</v>
@@ -25304,7 +25307,7 @@
         <v>76</v>
       </c>
       <c r="P127" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25686,7 +25689,7 @@
         <v>162</v>
       </c>
       <c r="P129" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -25877,7 +25880,7 @@
         <v>163</v>
       </c>
       <c r="P130" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -26158,7 +26161,7 @@
         <v>1.41</v>
       </c>
       <c r="AT131">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU131">
         <v>1.37</v>
@@ -26259,7 +26262,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26537,7 +26540,7 @@
         <v>1.23</v>
       </c>
       <c r="AS133">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT133">
         <v>1.12</v>
@@ -26641,7 +26644,7 @@
         <v>167</v>
       </c>
       <c r="P134" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q134">
         <v>8</v>
@@ -26832,7 +26835,7 @@
         <v>76</v>
       </c>
       <c r="P135" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q135">
         <v>2</v>
@@ -26922,7 +26925,7 @@
         <v>1.17</v>
       </c>
       <c r="AT135">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU135">
         <v>1.32</v>
@@ -28360,7 +28363,7 @@
         <v>76</v>
       </c>
       <c r="P143" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -28551,7 +28554,7 @@
         <v>76</v>
       </c>
       <c r="P144" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -28742,7 +28745,7 @@
         <v>174</v>
       </c>
       <c r="P145" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q145">
         <v>3</v>
@@ -28933,7 +28936,7 @@
         <v>175</v>
       </c>
       <c r="P146" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29020,7 +29023,7 @@
         <v>0.43</v>
       </c>
       <c r="AS146">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT146">
         <v>0.41</v>
@@ -29506,7 +29509,7 @@
         <v>76</v>
       </c>
       <c r="P149" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29784,7 +29787,7 @@
         <v>0.57</v>
       </c>
       <c r="AS150">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT150">
         <v>0.67</v>
@@ -30169,7 +30172,7 @@
         <v>1.76</v>
       </c>
       <c r="AT152">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU152">
         <v>1.55</v>
@@ -30461,7 +30464,7 @@
         <v>164</v>
       </c>
       <c r="P154" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30652,7 +30655,7 @@
         <v>130</v>
       </c>
       <c r="P155" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -30843,7 +30846,7 @@
         <v>178</v>
       </c>
       <c r="P156" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -31416,7 +31419,7 @@
         <v>180</v>
       </c>
       <c r="P159" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -31607,7 +31610,7 @@
         <v>76</v>
       </c>
       <c r="P160" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q160">
         <v>3</v>
@@ -31798,7 +31801,7 @@
         <v>181</v>
       </c>
       <c r="P161" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q161">
         <v>9</v>
@@ -31885,7 +31888,7 @@
         <v>1.27</v>
       </c>
       <c r="AS161">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT161">
         <v>1.18</v>
@@ -32180,7 +32183,7 @@
         <v>87</v>
       </c>
       <c r="P163" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32371,7 +32374,7 @@
         <v>183</v>
       </c>
       <c r="P164" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q164">
         <v>4</v>
@@ -32562,7 +32565,7 @@
         <v>184</v>
       </c>
       <c r="P165" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q165">
         <v>11</v>
@@ -32649,7 +32652,7 @@
         <v>1.75</v>
       </c>
       <c r="AS165">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="AT165">
         <v>1.56</v>
@@ -32753,7 +32756,7 @@
         <v>185</v>
       </c>
       <c r="P166" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q166">
         <v>4</v>
@@ -33135,7 +33138,7 @@
         <v>187</v>
       </c>
       <c r="P168" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q168">
         <v>1</v>
@@ -33326,7 +33329,7 @@
         <v>188</v>
       </c>
       <c r="P169" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33607,7 +33610,7 @@
         <v>1.78</v>
       </c>
       <c r="AT170">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="AU170">
         <v>1.66</v>
@@ -33708,7 +33711,7 @@
         <v>111</v>
       </c>
       <c r="P171" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -34472,7 +34475,7 @@
         <v>192</v>
       </c>
       <c r="P175" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q175">
         <v>10</v>
@@ -34614,6 +34617,197 @@
       </c>
       <c r="BK175">
         <v>13</v>
+      </c>
+    </row>
+    <row r="176" spans="1:63">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>1540792</v>
+      </c>
+      <c r="C176" t="s">
+        <v>63</v>
+      </c>
+      <c r="D176" t="s">
+        <v>64</v>
+      </c>
+      <c r="E176" s="2">
+        <v>44864.66666666666</v>
+      </c>
+      <c r="F176">
+        <v>35</v>
+      </c>
+      <c r="G176" t="s">
+        <v>67</v>
+      </c>
+      <c r="H176" t="s">
+        <v>69</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>1</v>
+      </c>
+      <c r="O176" t="s">
+        <v>193</v>
+      </c>
+      <c r="P176" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q176">
+        <v>3</v>
+      </c>
+      <c r="R176">
+        <v>8</v>
+      </c>
+      <c r="S176">
+        <v>11</v>
+      </c>
+      <c r="T176">
+        <v>2.8</v>
+      </c>
+      <c r="U176">
+        <v>2</v>
+      </c>
+      <c r="V176">
+        <v>4</v>
+      </c>
+      <c r="W176">
+        <v>1.44</v>
+      </c>
+      <c r="X176">
+        <v>2.6</v>
+      </c>
+      <c r="Y176">
+        <v>2.95</v>
+      </c>
+      <c r="Z176">
+        <v>1.35</v>
+      </c>
+      <c r="AA176">
+        <v>7.4</v>
+      </c>
+      <c r="AB176">
+        <v>1.06</v>
+      </c>
+      <c r="AC176">
+        <v>2.23</v>
+      </c>
+      <c r="AD176">
+        <v>3.3</v>
+      </c>
+      <c r="AE176">
+        <v>3</v>
+      </c>
+      <c r="AF176">
+        <v>1.07</v>
+      </c>
+      <c r="AG176">
+        <v>7.5</v>
+      </c>
+      <c r="AH176">
+        <v>1.33</v>
+      </c>
+      <c r="AI176">
+        <v>3.1</v>
+      </c>
+      <c r="AJ176">
+        <v>2.06</v>
+      </c>
+      <c r="AK176">
+        <v>1.68</v>
+      </c>
+      <c r="AL176">
+        <v>1.85</v>
+      </c>
+      <c r="AM176">
+        <v>1.85</v>
+      </c>
+      <c r="AN176">
+        <v>1.25</v>
+      </c>
+      <c r="AO176">
+        <v>1.28</v>
+      </c>
+      <c r="AP176">
+        <v>1.68</v>
+      </c>
+      <c r="AQ176">
+        <v>2.76</v>
+      </c>
+      <c r="AR176">
+        <v>2.06</v>
+      </c>
+      <c r="AS176">
+        <v>2.78</v>
+      </c>
+      <c r="AT176">
+        <v>1.94</v>
+      </c>
+      <c r="AU176">
+        <v>1.84</v>
+      </c>
+      <c r="AV176">
+        <v>1.67</v>
+      </c>
+      <c r="AW176">
+        <v>3.51</v>
+      </c>
+      <c r="AX176">
+        <v>1.63</v>
+      </c>
+      <c r="AY176">
+        <v>7.8</v>
+      </c>
+      <c r="AZ176">
+        <v>2.89</v>
+      </c>
+      <c r="BA176">
+        <v>1.29</v>
+      </c>
+      <c r="BB176">
+        <v>1.62</v>
+      </c>
+      <c r="BC176">
+        <v>2</v>
+      </c>
+      <c r="BD176">
+        <v>2.49</v>
+      </c>
+      <c r="BE176">
+        <v>3.56</v>
+      </c>
+      <c r="BF176">
+        <v>5</v>
+      </c>
+      <c r="BG176">
+        <v>5</v>
+      </c>
+      <c r="BH176">
+        <v>7</v>
+      </c>
+      <c r="BI176">
+        <v>7</v>
+      </c>
+      <c r="BJ176">
+        <v>12</v>
+      </c>
+      <c r="BK176">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Republic of Ireland Premier Division_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Republic of Ireland Premier Division_2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1143" uniqueCount="276">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -598,6 +598,15 @@
     <t>['38']</t>
   </si>
   <si>
+    <t>['14', '19', '37', '88']</t>
+  </si>
+  <si>
+    <t>['45', '49', '61']</t>
+  </si>
+  <si>
+    <t>['5', '90']</t>
+  </si>
+  <si>
     <t>['41', '79']</t>
   </si>
   <si>
@@ -827,6 +836,12 @@
   </si>
   <si>
     <t>['29', '73', '79']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['6', '83']</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK176"/>
+  <dimension ref="A1:BK181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1432,7 +1447,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -1623,7 +1638,7 @@
         <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q3">
         <v>4</v>
@@ -2005,7 +2020,7 @@
         <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q5">
         <v>7</v>
@@ -2092,10 +2107,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT5">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2196,7 +2211,7 @@
         <v>79</v>
       </c>
       <c r="P6" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -2283,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT6">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2387,7 +2402,7 @@
         <v>76</v>
       </c>
       <c r="P7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2474,10 +2489,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT7">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2578,7 +2593,7 @@
         <v>80</v>
       </c>
       <c r="P8" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q8">
         <v>3</v>
@@ -2665,10 +2680,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT8">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2856,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AT9">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3047,10 +3062,10 @@
         <v>3</v>
       </c>
       <c r="AS10">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AT10">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU10">
         <v>0.76</v>
@@ -3241,7 +3256,7 @@
         <v>2.28</v>
       </c>
       <c r="AT11">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU11">
         <v>1.67</v>
@@ -3429,10 +3444,10 @@
         <v>3</v>
       </c>
       <c r="AS12">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT12">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU12">
         <v>1.53</v>
@@ -3620,7 +3635,7 @@
         <v>3</v>
       </c>
       <c r="AS13">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT13">
         <v>1.56</v>
@@ -3724,7 +3739,7 @@
         <v>83</v>
       </c>
       <c r="P14" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q14">
         <v>10</v>
@@ -3915,7 +3930,7 @@
         <v>84</v>
       </c>
       <c r="P15" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4002,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT15">
         <v>0.67</v>
@@ -4106,7 +4121,7 @@
         <v>76</v>
       </c>
       <c r="P16" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q16">
         <v>5</v>
@@ -4384,10 +4399,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT17">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU17">
         <v>1.81</v>
@@ -4769,7 +4784,7 @@
         <v>1.78</v>
       </c>
       <c r="AT19">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU19">
         <v>0</v>
@@ -4960,7 +4975,7 @@
         <v>1.17</v>
       </c>
       <c r="AT20">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU20">
         <v>1.14</v>
@@ -5061,7 +5076,7 @@
         <v>76</v>
       </c>
       <c r="P21" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q21">
         <v>6</v>
@@ -5148,10 +5163,10 @@
         <v>2</v>
       </c>
       <c r="AS21">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT21">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU21">
         <v>1.35</v>
@@ -5443,7 +5458,7 @@
         <v>76</v>
       </c>
       <c r="P23" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q23">
         <v>5</v>
@@ -5634,7 +5649,7 @@
         <v>89</v>
       </c>
       <c r="P24" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q24">
         <v>8</v>
@@ -5721,10 +5736,10 @@
         <v>2</v>
       </c>
       <c r="AS24">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT24">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU24">
         <v>1.55</v>
@@ -5912,7 +5927,7 @@
         <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT25">
         <v>0.61</v>
@@ -6106,7 +6121,7 @@
         <v>2.28</v>
       </c>
       <c r="AT26">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU26">
         <v>1.49</v>
@@ -6297,7 +6312,7 @@
         <v>1.78</v>
       </c>
       <c r="AT27">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU27">
         <v>1.43</v>
@@ -6485,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT28">
         <v>0.67</v>
@@ -6589,7 +6604,7 @@
         <v>93</v>
       </c>
       <c r="P29" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q29">
         <v>4</v>
@@ -6676,7 +6691,7 @@
         <v>0.5</v>
       </c>
       <c r="AS29">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AT29">
         <v>1.11</v>
@@ -6867,7 +6882,7 @@
         <v>2</v>
       </c>
       <c r="AS30">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT30">
         <v>1.56</v>
@@ -7058,10 +7073,10 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT31">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU31">
         <v>1.44</v>
@@ -7162,7 +7177,7 @@
         <v>76</v>
       </c>
       <c r="P32" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q32">
         <v>2</v>
@@ -7252,7 +7267,7 @@
         <v>1.17</v>
       </c>
       <c r="AT32">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU32">
         <v>1.2</v>
@@ -7353,7 +7368,7 @@
         <v>96</v>
       </c>
       <c r="P33" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q33">
         <v>13</v>
@@ -7443,7 +7458,7 @@
         <v>2.78</v>
       </c>
       <c r="AT33">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU33">
         <v>1.71</v>
@@ -7634,7 +7649,7 @@
         <v>1.78</v>
       </c>
       <c r="AT34">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU34">
         <v>1.57</v>
@@ -7735,7 +7750,7 @@
         <v>97</v>
       </c>
       <c r="P35" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q35">
         <v>6</v>
@@ -7822,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="AS35">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT35">
         <v>0.61</v>
@@ -7926,7 +7941,7 @@
         <v>98</v>
       </c>
       <c r="P36" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8013,7 +8028,7 @@
         <v>2</v>
       </c>
       <c r="AS36">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT36">
         <v>1.94</v>
@@ -8308,7 +8323,7 @@
         <v>76</v>
       </c>
       <c r="P38" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q38">
         <v>3</v>
@@ -8398,7 +8413,7 @@
         <v>0.72</v>
       </c>
       <c r="AT38">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU38">
         <v>1.37</v>
@@ -8499,7 +8514,7 @@
         <v>76</v>
       </c>
       <c r="P39" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8586,7 +8601,7 @@
         <v>2.33</v>
       </c>
       <c r="AS39">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AT39">
         <v>1.94</v>
@@ -8690,7 +8705,7 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -8881,7 +8896,7 @@
         <v>76</v>
       </c>
       <c r="P41" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q41">
         <v>5</v>
@@ -9072,7 +9087,7 @@
         <v>101</v>
       </c>
       <c r="P42" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9159,7 +9174,7 @@
         <v>1.25</v>
       </c>
       <c r="AS42">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT42">
         <v>1.11</v>
@@ -9263,7 +9278,7 @@
         <v>102</v>
       </c>
       <c r="P43" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q43">
         <v>2</v>
@@ -9353,7 +9368,7 @@
         <v>1.17</v>
       </c>
       <c r="AT43">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU43">
         <v>1.09</v>
@@ -9541,10 +9556,10 @@
         <v>0.75</v>
       </c>
       <c r="AS44">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT44">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU44">
         <v>1.8</v>
@@ -9645,7 +9660,7 @@
         <v>103</v>
       </c>
       <c r="P45" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q45">
         <v>6</v>
@@ -9836,7 +9851,7 @@
         <v>104</v>
       </c>
       <c r="P46" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q46">
         <v>7</v>
@@ -10027,7 +10042,7 @@
         <v>76</v>
       </c>
       <c r="P47" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10114,7 +10129,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AT47">
         <v>0.61</v>
@@ -10308,7 +10323,7 @@
         <v>2.28</v>
       </c>
       <c r="AT48">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU48">
         <v>1.63</v>
@@ -10409,7 +10424,7 @@
         <v>106</v>
       </c>
       <c r="P49" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q49">
         <v>7</v>
@@ -10496,10 +10511,10 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT49">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU49">
         <v>1.66</v>
@@ -10600,7 +10615,7 @@
         <v>107</v>
       </c>
       <c r="P50" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10687,10 +10702,10 @@
         <v>2</v>
       </c>
       <c r="AS50">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT50">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU50">
         <v>1.86</v>
@@ -10982,7 +10997,7 @@
         <v>109</v>
       </c>
       <c r="P52" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q52">
         <v>2</v>
@@ -11173,7 +11188,7 @@
         <v>110</v>
       </c>
       <c r="P53" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11260,7 +11275,7 @@
         <v>1.2</v>
       </c>
       <c r="AS53">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AT53">
         <v>1.56</v>
@@ -11454,7 +11469,7 @@
         <v>0.72</v>
       </c>
       <c r="AT54">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU54">
         <v>1.36</v>
@@ -11645,7 +11660,7 @@
         <v>2.78</v>
       </c>
       <c r="AT55">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU55">
         <v>1.95</v>
@@ -11833,7 +11848,7 @@
         <v>2.6</v>
       </c>
       <c r="AS56">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT56">
         <v>1.94</v>
@@ -12027,7 +12042,7 @@
         <v>2.28</v>
       </c>
       <c r="AT57">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU57">
         <v>1.64</v>
@@ -12215,10 +12230,10 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT58">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU58">
         <v>1.72</v>
@@ -12319,7 +12334,7 @@
         <v>114</v>
       </c>
       <c r="P59" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q59">
         <v>4</v>
@@ -12406,10 +12421,10 @@
         <v>1.4</v>
       </c>
       <c r="AS59">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT59">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU59">
         <v>1.67</v>
@@ -12510,7 +12525,7 @@
         <v>115</v>
       </c>
       <c r="P60" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q60">
         <v>9</v>
@@ -12597,7 +12612,7 @@
         <v>0.2</v>
       </c>
       <c r="AS60">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT60">
         <v>0.67</v>
@@ -12701,7 +12716,7 @@
         <v>116</v>
       </c>
       <c r="P61" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q61">
         <v>10</v>
@@ -12979,7 +12994,7 @@
         <v>0.17</v>
       </c>
       <c r="AS62">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT62">
         <v>0.67</v>
@@ -13274,7 +13289,7 @@
         <v>76</v>
       </c>
       <c r="P64" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q64">
         <v>6</v>
@@ -13361,7 +13376,7 @@
         <v>2.33</v>
       </c>
       <c r="AS64">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT64">
         <v>1.94</v>
@@ -13465,7 +13480,7 @@
         <v>119</v>
       </c>
       <c r="P65" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q65">
         <v>3</v>
@@ -13555,7 +13570,7 @@
         <v>1.78</v>
       </c>
       <c r="AT65">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU65">
         <v>1.72</v>
@@ -13746,7 +13761,7 @@
         <v>0.72</v>
       </c>
       <c r="AT66">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU66">
         <v>1.41</v>
@@ -13847,7 +13862,7 @@
         <v>121</v>
       </c>
       <c r="P67" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q67">
         <v>7</v>
@@ -13934,10 +13949,10 @@
         <v>0.67</v>
       </c>
       <c r="AS67">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AT67">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU67">
         <v>0.98</v>
@@ -14125,7 +14140,7 @@
         <v>1.5</v>
       </c>
       <c r="AS68">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT68">
         <v>1.11</v>
@@ -14229,7 +14244,7 @@
         <v>76</v>
       </c>
       <c r="P69" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q69">
         <v>4</v>
@@ -14316,7 +14331,7 @@
         <v>1.5</v>
       </c>
       <c r="AS69">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT69">
         <v>1.56</v>
@@ -14420,7 +14435,7 @@
         <v>123</v>
       </c>
       <c r="P70" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14510,7 +14525,7 @@
         <v>1.17</v>
       </c>
       <c r="AT70">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU70">
         <v>1.09</v>
@@ -14701,7 +14716,7 @@
         <v>2.78</v>
       </c>
       <c r="AT71">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU71">
         <v>1.95</v>
@@ -14889,7 +14904,7 @@
         <v>1.71</v>
       </c>
       <c r="AS72">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT72">
         <v>1.56</v>
@@ -15083,7 +15098,7 @@
         <v>2.78</v>
       </c>
       <c r="AT73">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU73">
         <v>1.99</v>
@@ -16139,7 +16154,7 @@
         <v>76</v>
       </c>
       <c r="P79" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q79">
         <v>2</v>
@@ -16226,10 +16241,10 @@
         <v>1.57</v>
       </c>
       <c r="AS79">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AT79">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU79">
         <v>1.02</v>
@@ -16417,10 +16432,10 @@
         <v>1.38</v>
       </c>
       <c r="AS80">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT80">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU80">
         <v>1.47</v>
@@ -16521,7 +16536,7 @@
         <v>130</v>
       </c>
       <c r="P81" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q81">
         <v>5</v>
@@ -16608,10 +16623,10 @@
         <v>0.71</v>
       </c>
       <c r="AS81">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT81">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU81">
         <v>2.04</v>
@@ -16712,7 +16727,7 @@
         <v>131</v>
       </c>
       <c r="P82" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q82">
         <v>5</v>
@@ -16799,10 +16814,10 @@
         <v>0.71</v>
       </c>
       <c r="AS82">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT82">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU82">
         <v>1.32</v>
@@ -16903,7 +16918,7 @@
         <v>132</v>
       </c>
       <c r="P83" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -16990,10 +17005,10 @@
         <v>1.57</v>
       </c>
       <c r="AS83">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT83">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU83">
         <v>1.55</v>
@@ -17181,7 +17196,7 @@
         <v>1.25</v>
       </c>
       <c r="AS84">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT84">
         <v>1.11</v>
@@ -17285,7 +17300,7 @@
         <v>134</v>
       </c>
       <c r="P85" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17754,10 +17769,10 @@
         <v>1.75</v>
       </c>
       <c r="AS87">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT87">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU87">
         <v>1.33</v>
@@ -17858,7 +17873,7 @@
         <v>76</v>
       </c>
       <c r="P88" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q88">
         <v>7</v>
@@ -17948,7 +17963,7 @@
         <v>0.72</v>
       </c>
       <c r="AT88">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU88">
         <v>1.35</v>
@@ -18049,7 +18064,7 @@
         <v>137</v>
       </c>
       <c r="P89" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q89">
         <v>8</v>
@@ -18136,7 +18151,7 @@
         <v>0.63</v>
       </c>
       <c r="AS89">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT89">
         <v>0.61</v>
@@ -18240,7 +18255,7 @@
         <v>138</v>
       </c>
       <c r="P90" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -18327,10 +18342,10 @@
         <v>0.63</v>
       </c>
       <c r="AS90">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT90">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU90">
         <v>2.08</v>
@@ -18709,10 +18724,10 @@
         <v>1.22</v>
       </c>
       <c r="AS92">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AT92">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU92">
         <v>0.97</v>
@@ -18903,7 +18918,7 @@
         <v>2.78</v>
       </c>
       <c r="AT93">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU93">
         <v>1.87</v>
@@ -19091,10 +19106,10 @@
         <v>1.56</v>
       </c>
       <c r="AS94">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT94">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU94">
         <v>1.57</v>
@@ -19195,7 +19210,7 @@
         <v>141</v>
       </c>
       <c r="P95" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q95">
         <v>8</v>
@@ -19282,7 +19297,7 @@
         <v>0.67</v>
       </c>
       <c r="AS95">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT95">
         <v>0.61</v>
@@ -19476,7 +19491,7 @@
         <v>2.28</v>
       </c>
       <c r="AT96">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU96">
         <v>1.64</v>
@@ -19664,7 +19679,7 @@
         <v>0.44</v>
       </c>
       <c r="AS97">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT97">
         <v>0.67</v>
@@ -19858,7 +19873,7 @@
         <v>1.78</v>
       </c>
       <c r="AT98">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU98">
         <v>1.71</v>
@@ -20150,7 +20165,7 @@
         <v>76</v>
       </c>
       <c r="P100" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q100">
         <v>2</v>
@@ -20237,7 +20252,7 @@
         <v>1.89</v>
       </c>
       <c r="AS100">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AT100">
         <v>1.94</v>
@@ -20428,10 +20443,10 @@
         <v>1.2</v>
       </c>
       <c r="AS101">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT101">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU101">
         <v>1.25</v>
@@ -20622,7 +20637,7 @@
         <v>1.17</v>
       </c>
       <c r="AT102">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU102">
         <v>1.29</v>
@@ -20723,7 +20738,7 @@
         <v>146</v>
       </c>
       <c r="P103" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q103">
         <v>3</v>
@@ -20914,7 +20929,7 @@
         <v>147</v>
       </c>
       <c r="P104" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q104">
         <v>1</v>
@@ -21001,10 +21016,10 @@
         <v>1.4</v>
       </c>
       <c r="AS104">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT104">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU104">
         <v>1.49</v>
@@ -21105,7 +21120,7 @@
         <v>148</v>
       </c>
       <c r="P105" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q105">
         <v>8</v>
@@ -21192,7 +21207,7 @@
         <v>2</v>
       </c>
       <c r="AS105">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT105">
         <v>1.94</v>
@@ -21574,7 +21589,7 @@
         <v>0.7</v>
       </c>
       <c r="AS107">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT107">
         <v>0.61</v>
@@ -21768,7 +21783,7 @@
         <v>0.72</v>
       </c>
       <c r="AT108">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU108">
         <v>1.31</v>
@@ -21869,7 +21884,7 @@
         <v>151</v>
       </c>
       <c r="P109" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q109">
         <v>1</v>
@@ -21959,7 +21974,7 @@
         <v>1.78</v>
       </c>
       <c r="AT109">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU109">
         <v>1.69</v>
@@ -22060,7 +22075,7 @@
         <v>152</v>
       </c>
       <c r="P110" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q110">
         <v>9</v>
@@ -22147,7 +22162,7 @@
         <v>1</v>
       </c>
       <c r="AS110">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AT110">
         <v>1.11</v>
@@ -22338,10 +22353,10 @@
         <v>1.2</v>
       </c>
       <c r="AS111">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT111">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU111">
         <v>1.24</v>
@@ -22442,7 +22457,7 @@
         <v>154</v>
       </c>
       <c r="P112" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22532,7 +22547,7 @@
         <v>1.17</v>
       </c>
       <c r="AT112">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU112">
         <v>1.28</v>
@@ -22633,7 +22648,7 @@
         <v>76</v>
       </c>
       <c r="P113" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -22720,7 +22735,7 @@
         <v>1.18</v>
       </c>
       <c r="AS113">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT113">
         <v>1.11</v>
@@ -22911,10 +22926,10 @@
         <v>1.09</v>
       </c>
       <c r="AS114">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT114">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU114">
         <v>1.54</v>
@@ -23015,7 +23030,7 @@
         <v>107</v>
       </c>
       <c r="P115" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q115">
         <v>2</v>
@@ -23206,7 +23221,7 @@
         <v>76</v>
       </c>
       <c r="P116" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q116">
         <v>9</v>
@@ -23487,7 +23502,7 @@
         <v>2.28</v>
       </c>
       <c r="AT117">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU117">
         <v>1.61</v>
@@ -23588,7 +23603,7 @@
         <v>76</v>
       </c>
       <c r="P118" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23675,10 +23690,10 @@
         <v>1.27</v>
       </c>
       <c r="AS118">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AT118">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU118">
         <v>1.01</v>
@@ -23970,7 +23985,7 @@
         <v>157</v>
       </c>
       <c r="P120" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q120">
         <v>3</v>
@@ -24057,7 +24072,7 @@
         <v>0.58</v>
       </c>
       <c r="AS120">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT120">
         <v>0.67</v>
@@ -24161,7 +24176,7 @@
         <v>147</v>
       </c>
       <c r="P121" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q121">
         <v>5</v>
@@ -24734,7 +24749,7 @@
         <v>160</v>
       </c>
       <c r="P124" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q124">
         <v>5</v>
@@ -24821,10 +24836,10 @@
         <v>0.5</v>
       </c>
       <c r="AS124">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AT124">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU124">
         <v>1.04</v>
@@ -24925,7 +24940,7 @@
         <v>161</v>
       </c>
       <c r="P125" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q125">
         <v>8</v>
@@ -25012,10 +25027,10 @@
         <v>1.42</v>
       </c>
       <c r="AS125">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT125">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU125">
         <v>1.36</v>
@@ -25203,10 +25218,10 @@
         <v>1.67</v>
       </c>
       <c r="AS126">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT126">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU126">
         <v>2.06</v>
@@ -25307,7 +25322,7 @@
         <v>76</v>
       </c>
       <c r="P127" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25394,10 +25409,10 @@
         <v>1.08</v>
       </c>
       <c r="AS127">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT127">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU127">
         <v>1.48</v>
@@ -25585,10 +25600,10 @@
         <v>1.18</v>
       </c>
       <c r="AS128">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT128">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU128">
         <v>1.56</v>
@@ -25689,7 +25704,7 @@
         <v>162</v>
       </c>
       <c r="P129" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q129">
         <v>4</v>
@@ -25880,7 +25895,7 @@
         <v>163</v>
       </c>
       <c r="P130" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q130">
         <v>4</v>
@@ -25967,7 +25982,7 @@
         <v>1.36</v>
       </c>
       <c r="AS130">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AT130">
         <v>1.56</v>
@@ -26158,7 +26173,7 @@
         <v>2.08</v>
       </c>
       <c r="AS131">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT131">
         <v>1.94</v>
@@ -26262,7 +26277,7 @@
         <v>165</v>
       </c>
       <c r="P132" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26352,7 +26367,7 @@
         <v>0.72</v>
       </c>
       <c r="AT132">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU132">
         <v>1.25</v>
@@ -26543,7 +26558,7 @@
         <v>2.78</v>
       </c>
       <c r="AT133">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU133">
         <v>1.8</v>
@@ -26644,7 +26659,7 @@
         <v>167</v>
       </c>
       <c r="P134" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q134">
         <v>8</v>
@@ -26731,7 +26746,7 @@
         <v>1.5</v>
       </c>
       <c r="AS134">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT134">
         <v>1.56</v>
@@ -26835,7 +26850,7 @@
         <v>76</v>
       </c>
       <c r="P135" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q135">
         <v>2</v>
@@ -27116,7 +27131,7 @@
         <v>1.78</v>
       </c>
       <c r="AT136">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU136">
         <v>1.68</v>
@@ -27304,7 +27319,7 @@
         <v>0.62</v>
       </c>
       <c r="AS137">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT137">
         <v>0.67</v>
@@ -27495,10 +27510,10 @@
         <v>0.46</v>
       </c>
       <c r="AS138">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT138">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU138">
         <v>1.55</v>
@@ -27689,7 +27704,7 @@
         <v>2.28</v>
       </c>
       <c r="AT139">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU139">
         <v>1.59</v>
@@ -27877,10 +27892,10 @@
         <v>1.62</v>
       </c>
       <c r="AS140">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT140">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU140">
         <v>1.57</v>
@@ -28259,7 +28274,7 @@
         <v>1.21</v>
       </c>
       <c r="AS142">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT142">
         <v>1.11</v>
@@ -28363,7 +28378,7 @@
         <v>76</v>
       </c>
       <c r="P143" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q143">
         <v>2</v>
@@ -28450,7 +28465,7 @@
         <v>1.62</v>
       </c>
       <c r="AS143">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT143">
         <v>1.56</v>
@@ -28554,7 +28569,7 @@
         <v>76</v>
       </c>
       <c r="P144" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -28644,7 +28659,7 @@
         <v>1.17</v>
       </c>
       <c r="AT144">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU144">
         <v>1.29</v>
@@ -28745,7 +28760,7 @@
         <v>174</v>
       </c>
       <c r="P145" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q145">
         <v>3</v>
@@ -28832,10 +28847,10 @@
         <v>1.07</v>
       </c>
       <c r="AS145">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AT145">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU145">
         <v>1.14</v>
@@ -28936,7 +28951,7 @@
         <v>175</v>
       </c>
       <c r="P146" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29026,7 +29041,7 @@
         <v>2.78</v>
       </c>
       <c r="AT146">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU146">
         <v>1.78</v>
@@ -29214,10 +29229,10 @@
         <v>1.14</v>
       </c>
       <c r="AS147">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT147">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU147">
         <v>1.99</v>
@@ -29408,7 +29423,7 @@
         <v>1.17</v>
       </c>
       <c r="AT148">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU148">
         <v>1.26</v>
@@ -29509,7 +29524,7 @@
         <v>76</v>
       </c>
       <c r="P149" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29978,7 +29993,7 @@
         <v>0.53</v>
       </c>
       <c r="AS151">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT151">
         <v>0.67</v>
@@ -30169,7 +30184,7 @@
         <v>2.07</v>
       </c>
       <c r="AS152">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT152">
         <v>1.94</v>
@@ -30464,7 +30479,7 @@
         <v>164</v>
       </c>
       <c r="P154" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q154">
         <v>3</v>
@@ -30554,7 +30569,7 @@
         <v>0.72</v>
       </c>
       <c r="AT154">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU154">
         <v>1.25</v>
@@ -30655,7 +30670,7 @@
         <v>130</v>
       </c>
       <c r="P155" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q155">
         <v>3</v>
@@ -30745,7 +30760,7 @@
         <v>1.78</v>
       </c>
       <c r="AT155">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU155">
         <v>1.69</v>
@@ -30846,7 +30861,7 @@
         <v>178</v>
       </c>
       <c r="P156" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q156">
         <v>4</v>
@@ -31124,7 +31139,7 @@
         <v>0.53</v>
       </c>
       <c r="AS157">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT157">
         <v>0.61</v>
@@ -31315,10 +31330,10 @@
         <v>0.4</v>
       </c>
       <c r="AS158">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT158">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU158">
         <v>1.92</v>
@@ -31419,7 +31434,7 @@
         <v>180</v>
       </c>
       <c r="P159" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q159">
         <v>5</v>
@@ -31610,7 +31625,7 @@
         <v>76</v>
       </c>
       <c r="P160" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q160">
         <v>3</v>
@@ -31697,10 +31712,10 @@
         <v>1.07</v>
       </c>
       <c r="AS160">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AT160">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU160">
         <v>1.16</v>
@@ -31801,7 +31816,7 @@
         <v>181</v>
       </c>
       <c r="P161" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q161">
         <v>9</v>
@@ -31891,7 +31906,7 @@
         <v>2.78</v>
       </c>
       <c r="AT161">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU161">
         <v>1.83</v>
@@ -32079,7 +32094,7 @@
         <v>1.25</v>
       </c>
       <c r="AS162">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="AT162">
         <v>1.11</v>
@@ -32183,7 +32198,7 @@
         <v>87</v>
       </c>
       <c r="P163" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q163">
         <v>6</v>
@@ -32273,7 +32288,7 @@
         <v>0.72</v>
       </c>
       <c r="AT163">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU163">
         <v>1.22</v>
@@ -32374,7 +32389,7 @@
         <v>183</v>
       </c>
       <c r="P164" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q164">
         <v>4</v>
@@ -32461,10 +32476,10 @@
         <v>1.56</v>
       </c>
       <c r="AS164">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AT164">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="AU164">
         <v>1.36</v>
@@ -32565,7 +32580,7 @@
         <v>184</v>
       </c>
       <c r="P165" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q165">
         <v>11</v>
@@ -32756,7 +32771,7 @@
         <v>185</v>
       </c>
       <c r="P166" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q166">
         <v>4</v>
@@ -32843,7 +32858,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS166">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AT166">
         <v>0.61</v>
@@ -33034,10 +33049,10 @@
         <v>1.19</v>
       </c>
       <c r="AS167">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AT167">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU167">
         <v>1.96</v>
@@ -33138,7 +33153,7 @@
         <v>187</v>
       </c>
       <c r="P168" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q168">
         <v>1</v>
@@ -33228,7 +33243,7 @@
         <v>2.28</v>
       </c>
       <c r="AT168">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU168">
         <v>1.55</v>
@@ -33329,7 +33344,7 @@
         <v>188</v>
       </c>
       <c r="P169" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q169">
         <v>5</v>
@@ -33416,10 +33431,10 @@
         <v>0.38</v>
       </c>
       <c r="AS169">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="AT169">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="AU169">
         <v>1.52</v>
@@ -33711,7 +33726,7 @@
         <v>111</v>
       </c>
       <c r="P171" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q171">
         <v>5</v>
@@ -34475,7 +34490,7 @@
         <v>192</v>
       </c>
       <c r="P175" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q175">
         <v>10</v>
@@ -34807,6 +34822,961 @@
         <v>12</v>
       </c>
       <c r="BK176">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:63">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>1540797</v>
+      </c>
+      <c r="C177" t="s">
+        <v>63</v>
+      </c>
+      <c r="D177" t="s">
+        <v>64</v>
+      </c>
+      <c r="E177" s="2">
+        <v>44871.66666666666</v>
+      </c>
+      <c r="F177">
+        <v>36</v>
+      </c>
+      <c r="G177" t="s">
+        <v>71</v>
+      </c>
+      <c r="H177" t="s">
+        <v>66</v>
+      </c>
+      <c r="I177">
+        <v>3</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>3</v>
+      </c>
+      <c r="L177">
+        <v>4</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>4</v>
+      </c>
+      <c r="O177" t="s">
+        <v>194</v>
+      </c>
+      <c r="P177" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q177">
+        <v>2</v>
+      </c>
+      <c r="R177">
+        <v>4</v>
+      </c>
+      <c r="S177">
+        <v>6</v>
+      </c>
+      <c r="T177">
+        <v>2.51</v>
+      </c>
+      <c r="U177">
+        <v>2.27</v>
+      </c>
+      <c r="V177">
+        <v>4.75</v>
+      </c>
+      <c r="W177">
+        <v>1.37</v>
+      </c>
+      <c r="X177">
+        <v>2.8</v>
+      </c>
+      <c r="Y177">
+        <v>2.8</v>
+      </c>
+      <c r="Z177">
+        <v>1.37</v>
+      </c>
+      <c r="AA177">
+        <v>6.8</v>
+      </c>
+      <c r="AB177">
+        <v>1.07</v>
+      </c>
+      <c r="AC177">
+        <v>1.94</v>
+      </c>
+      <c r="AD177">
+        <v>3.55</v>
+      </c>
+      <c r="AE177">
+        <v>3.55</v>
+      </c>
+      <c r="AF177">
+        <v>1.05</v>
+      </c>
+      <c r="AG177">
+        <v>8</v>
+      </c>
+      <c r="AH177">
+        <v>1.25</v>
+      </c>
+      <c r="AI177">
+        <v>3.5</v>
+      </c>
+      <c r="AJ177">
+        <v>1.9</v>
+      </c>
+      <c r="AK177">
+        <v>2</v>
+      </c>
+      <c r="AL177">
+        <v>1.87</v>
+      </c>
+      <c r="AM177">
+        <v>1.93</v>
+      </c>
+      <c r="AN177">
+        <v>1.24</v>
+      </c>
+      <c r="AO177">
+        <v>1.26</v>
+      </c>
+      <c r="AP177">
+        <v>2.03</v>
+      </c>
+      <c r="AQ177">
+        <v>1.76</v>
+      </c>
+      <c r="AR177">
+        <v>1.18</v>
+      </c>
+      <c r="AS177">
+        <v>1.83</v>
+      </c>
+      <c r="AT177">
+        <v>1.11</v>
+      </c>
+      <c r="AU177">
+        <v>1.54</v>
+      </c>
+      <c r="AV177">
+        <v>1.07</v>
+      </c>
+      <c r="AW177">
+        <v>2.61</v>
+      </c>
+      <c r="AX177">
+        <v>1.47</v>
+      </c>
+      <c r="AY177">
+        <v>8.1</v>
+      </c>
+      <c r="AZ177">
+        <v>3.52</v>
+      </c>
+      <c r="BA177">
+        <v>1.41</v>
+      </c>
+      <c r="BB177">
+        <v>1.74</v>
+      </c>
+      <c r="BC177">
+        <v>2.16</v>
+      </c>
+      <c r="BD177">
+        <v>3.04</v>
+      </c>
+      <c r="BE177">
+        <v>4.2</v>
+      </c>
+      <c r="BF177">
+        <v>8</v>
+      </c>
+      <c r="BG177">
+        <v>4</v>
+      </c>
+      <c r="BH177">
+        <v>4</v>
+      </c>
+      <c r="BI177">
+        <v>5</v>
+      </c>
+      <c r="BJ177">
+        <v>12</v>
+      </c>
+      <c r="BK177">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:63">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>1540794</v>
+      </c>
+      <c r="C178" t="s">
+        <v>63</v>
+      </c>
+      <c r="D178" t="s">
+        <v>64</v>
+      </c>
+      <c r="E178" s="2">
+        <v>44871.66666666666</v>
+      </c>
+      <c r="F178">
+        <v>36</v>
+      </c>
+      <c r="G178" t="s">
+        <v>68</v>
+      </c>
+      <c r="H178" t="s">
+        <v>74</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <v>3</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>4</v>
+      </c>
+      <c r="O178" t="s">
+        <v>195</v>
+      </c>
+      <c r="P178" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q178">
+        <v>3</v>
+      </c>
+      <c r="R178">
+        <v>8</v>
+      </c>
+      <c r="S178">
+        <v>11</v>
+      </c>
+      <c r="T178">
+        <v>2.62</v>
+      </c>
+      <c r="U178">
+        <v>2.2</v>
+      </c>
+      <c r="V178">
+        <v>4.1</v>
+      </c>
+      <c r="W178">
+        <v>1.35</v>
+      </c>
+      <c r="X178">
+        <v>2.9</v>
+      </c>
+      <c r="Y178">
+        <v>2.7</v>
+      </c>
+      <c r="Z178">
+        <v>1.4</v>
+      </c>
+      <c r="AA178">
+        <v>6.5</v>
+      </c>
+      <c r="AB178">
+        <v>1.08</v>
+      </c>
+      <c r="AC178">
+        <v>2.11</v>
+      </c>
+      <c r="AD178">
+        <v>3.55</v>
+      </c>
+      <c r="AE178">
+        <v>3.05</v>
+      </c>
+      <c r="AF178">
+        <v>1.04</v>
+      </c>
+      <c r="AG178">
+        <v>8.5</v>
+      </c>
+      <c r="AH178">
+        <v>1.25</v>
+      </c>
+      <c r="AI178">
+        <v>3.5</v>
+      </c>
+      <c r="AJ178">
+        <v>1.88</v>
+      </c>
+      <c r="AK178">
+        <v>2.02</v>
+      </c>
+      <c r="AL178">
+        <v>1.72</v>
+      </c>
+      <c r="AM178">
+        <v>2.07</v>
+      </c>
+      <c r="AN178">
+        <v>1.29</v>
+      </c>
+      <c r="AO178">
+        <v>1.3</v>
+      </c>
+      <c r="AP178">
+        <v>1.73</v>
+      </c>
+      <c r="AQ178">
+        <v>1.35</v>
+      </c>
+      <c r="AR178">
+        <v>1.18</v>
+      </c>
+      <c r="AS178">
+        <v>1.44</v>
+      </c>
+      <c r="AT178">
+        <v>1.11</v>
+      </c>
+      <c r="AU178">
+        <v>1.54</v>
+      </c>
+      <c r="AV178">
+        <v>1.3</v>
+      </c>
+      <c r="AW178">
+        <v>2.84</v>
+      </c>
+      <c r="AX178">
+        <v>1.64</v>
+      </c>
+      <c r="AY178">
+        <v>7.8</v>
+      </c>
+      <c r="AZ178">
+        <v>2.86</v>
+      </c>
+      <c r="BA178">
+        <v>1.27</v>
+      </c>
+      <c r="BB178">
+        <v>1.6</v>
+      </c>
+      <c r="BC178">
+        <v>1.96</v>
+      </c>
+      <c r="BD178">
+        <v>2.43</v>
+      </c>
+      <c r="BE178">
+        <v>3.42</v>
+      </c>
+      <c r="BF178">
+        <v>8</v>
+      </c>
+      <c r="BG178">
+        <v>9</v>
+      </c>
+      <c r="BH178">
+        <v>2</v>
+      </c>
+      <c r="BI178">
+        <v>3</v>
+      </c>
+      <c r="BJ178">
+        <v>10</v>
+      </c>
+      <c r="BK178">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:63">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>1540795</v>
+      </c>
+      <c r="C179" t="s">
+        <v>63</v>
+      </c>
+      <c r="D179" t="s">
+        <v>64</v>
+      </c>
+      <c r="E179" s="2">
+        <v>44871.66666666666</v>
+      </c>
+      <c r="F179">
+        <v>36</v>
+      </c>
+      <c r="G179" t="s">
+        <v>69</v>
+      </c>
+      <c r="H179" t="s">
+        <v>65</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+      <c r="N179">
+        <v>1</v>
+      </c>
+      <c r="O179" t="s">
+        <v>76</v>
+      </c>
+      <c r="P179" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q179">
+        <v>6</v>
+      </c>
+      <c r="R179">
+        <v>2</v>
+      </c>
+      <c r="S179">
+        <v>8</v>
+      </c>
+      <c r="T179">
+        <v>2.15</v>
+      </c>
+      <c r="U179">
+        <v>2.15</v>
+      </c>
+      <c r="V179">
+        <v>5.25</v>
+      </c>
+      <c r="W179">
+        <v>1.39</v>
+      </c>
+      <c r="X179">
+        <v>2.75</v>
+      </c>
+      <c r="Y179">
+        <v>2.75</v>
+      </c>
+      <c r="Z179">
+        <v>1.39</v>
+      </c>
+      <c r="AA179">
+        <v>7</v>
+      </c>
+      <c r="AB179">
+        <v>1.08</v>
+      </c>
+      <c r="AC179">
+        <v>1.65</v>
+      </c>
+      <c r="AD179">
+        <v>3.75</v>
+      </c>
+      <c r="AE179">
+        <v>4.8</v>
+      </c>
+      <c r="AF179">
+        <v>1.05</v>
+      </c>
+      <c r="AG179">
+        <v>8</v>
+      </c>
+      <c r="AH179">
+        <v>1.25</v>
+      </c>
+      <c r="AI179">
+        <v>3.5</v>
+      </c>
+      <c r="AJ179">
+        <v>2.01</v>
+      </c>
+      <c r="AK179">
+        <v>1.89</v>
+      </c>
+      <c r="AL179">
+        <v>1.95</v>
+      </c>
+      <c r="AM179">
+        <v>1.75</v>
+      </c>
+      <c r="AN179">
+        <v>1.15</v>
+      </c>
+      <c r="AO179">
+        <v>1.24</v>
+      </c>
+      <c r="AP179">
+        <v>2.25</v>
+      </c>
+      <c r="AQ179">
+        <v>1.82</v>
+      </c>
+      <c r="AR179">
+        <v>1.12</v>
+      </c>
+      <c r="AS179">
+        <v>1.72</v>
+      </c>
+      <c r="AT179">
+        <v>1.22</v>
+      </c>
+      <c r="AU179">
+        <v>1.95</v>
+      </c>
+      <c r="AV179">
+        <v>1.55</v>
+      </c>
+      <c r="AW179">
+        <v>3.5</v>
+      </c>
+      <c r="AX179">
+        <v>1.27</v>
+      </c>
+      <c r="AY179">
+        <v>9.6</v>
+      </c>
+      <c r="AZ179">
+        <v>5.1</v>
+      </c>
+      <c r="BA179">
+        <v>1.26</v>
+      </c>
+      <c r="BB179">
+        <v>1.57</v>
+      </c>
+      <c r="BC179">
+        <v>1.93</v>
+      </c>
+      <c r="BD179">
+        <v>2.37</v>
+      </c>
+      <c r="BE179">
+        <v>3.34</v>
+      </c>
+      <c r="BF179">
+        <v>4</v>
+      </c>
+      <c r="BG179">
+        <v>3</v>
+      </c>
+      <c r="BH179">
+        <v>11</v>
+      </c>
+      <c r="BI179">
+        <v>2</v>
+      </c>
+      <c r="BJ179">
+        <v>15</v>
+      </c>
+      <c r="BK179">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:63">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>1540796</v>
+      </c>
+      <c r="C180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D180" t="s">
+        <v>64</v>
+      </c>
+      <c r="E180" s="2">
+        <v>44871.66666666666</v>
+      </c>
+      <c r="F180">
+        <v>36</v>
+      </c>
+      <c r="G180" t="s">
+        <v>70</v>
+      </c>
+      <c r="H180" t="s">
+        <v>73</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>2</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>2</v>
+      </c>
+      <c r="O180" t="s">
+        <v>196</v>
+      </c>
+      <c r="P180" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q180">
+        <v>10</v>
+      </c>
+      <c r="R180">
+        <v>5</v>
+      </c>
+      <c r="S180">
+        <v>15</v>
+      </c>
+      <c r="T180">
+        <v>2.72</v>
+      </c>
+      <c r="U180">
+        <v>2.22</v>
+      </c>
+      <c r="V180">
+        <v>3.8</v>
+      </c>
+      <c r="W180">
+        <v>1.32</v>
+      </c>
+      <c r="X180">
+        <v>3.1</v>
+      </c>
+      <c r="Y180">
+        <v>2.55</v>
+      </c>
+      <c r="Z180">
+        <v>1.45</v>
+      </c>
+      <c r="AA180">
+        <v>5.8</v>
+      </c>
+      <c r="AB180">
+        <v>1.1</v>
+      </c>
+      <c r="AC180">
+        <v>2.17</v>
+      </c>
+      <c r="AD180">
+        <v>3.6</v>
+      </c>
+      <c r="AE180">
+        <v>2.92</v>
+      </c>
+      <c r="AF180">
+        <v>1.04</v>
+      </c>
+      <c r="AG180">
+        <v>8.5</v>
+      </c>
+      <c r="AH180">
+        <v>1.22</v>
+      </c>
+      <c r="AI180">
+        <v>3.7</v>
+      </c>
+      <c r="AJ180">
+        <v>1.8</v>
+      </c>
+      <c r="AK180">
+        <v>2</v>
+      </c>
+      <c r="AL180">
+        <v>1.66</v>
+      </c>
+      <c r="AM180">
+        <v>2.17</v>
+      </c>
+      <c r="AN180">
+        <v>1.33</v>
+      </c>
+      <c r="AO180">
+        <v>1.29</v>
+      </c>
+      <c r="AP180">
+        <v>1.67</v>
+      </c>
+      <c r="AQ180">
+        <v>1.41</v>
+      </c>
+      <c r="AR180">
+        <v>0.41</v>
+      </c>
+      <c r="AS180">
+        <v>1.5</v>
+      </c>
+      <c r="AT180">
+        <v>0.39</v>
+      </c>
+      <c r="AU180">
+        <v>1.38</v>
+      </c>
+      <c r="AV180">
+        <v>1.25</v>
+      </c>
+      <c r="AW180">
+        <v>2.63</v>
+      </c>
+      <c r="AX180">
+        <v>1.72</v>
+      </c>
+      <c r="AY180">
+        <v>7.8</v>
+      </c>
+      <c r="AZ180">
+        <v>2.65</v>
+      </c>
+      <c r="BA180">
+        <v>1.27</v>
+      </c>
+      <c r="BB180">
+        <v>1.58</v>
+      </c>
+      <c r="BC180">
+        <v>1.94</v>
+      </c>
+      <c r="BD180">
+        <v>2.41</v>
+      </c>
+      <c r="BE180">
+        <v>3.42</v>
+      </c>
+      <c r="BF180">
+        <v>7</v>
+      </c>
+      <c r="BG180">
+        <v>2</v>
+      </c>
+      <c r="BH180">
+        <v>10</v>
+      </c>
+      <c r="BI180">
+        <v>4</v>
+      </c>
+      <c r="BJ180">
+        <v>17</v>
+      </c>
+      <c r="BK180">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:63">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>1540798</v>
+      </c>
+      <c r="C181" t="s">
+        <v>63</v>
+      </c>
+      <c r="D181" t="s">
+        <v>64</v>
+      </c>
+      <c r="E181" s="2">
+        <v>44871.66666666666</v>
+      </c>
+      <c r="F181">
+        <v>36</v>
+      </c>
+      <c r="G181" t="s">
+        <v>72</v>
+      </c>
+      <c r="H181" t="s">
+        <v>67</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>2</v>
+      </c>
+      <c r="N181">
+        <v>2</v>
+      </c>
+      <c r="O181" t="s">
+        <v>76</v>
+      </c>
+      <c r="P181" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q181">
+        <v>1</v>
+      </c>
+      <c r="R181">
+        <v>7</v>
+      </c>
+      <c r="S181">
+        <v>8</v>
+      </c>
+      <c r="T181">
+        <v>7</v>
+      </c>
+      <c r="U181">
+        <v>2.51</v>
+      </c>
+      <c r="V181">
+        <v>1.85</v>
+      </c>
+      <c r="W181">
+        <v>1.3</v>
+      </c>
+      <c r="X181">
+        <v>3.2</v>
+      </c>
+      <c r="Y181">
+        <v>2.45</v>
+      </c>
+      <c r="Z181">
+        <v>1.47</v>
+      </c>
+      <c r="AA181">
+        <v>5.3</v>
+      </c>
+      <c r="AB181">
+        <v>1.12</v>
+      </c>
+      <c r="AC181">
+        <v>6.9</v>
+      </c>
+      <c r="AD181">
+        <v>4.8</v>
+      </c>
+      <c r="AE181">
+        <v>1.38</v>
+      </c>
+      <c r="AF181">
+        <v>1.03</v>
+      </c>
+      <c r="AG181">
+        <v>12</v>
+      </c>
+      <c r="AH181">
+        <v>1.17</v>
+      </c>
+      <c r="AI181">
+        <v>4.3</v>
+      </c>
+      <c r="AJ181">
+        <v>1.65</v>
+      </c>
+      <c r="AK181">
+        <v>2.25</v>
+      </c>
+      <c r="AL181">
+        <v>1.93</v>
+      </c>
+      <c r="AM181">
+        <v>1.83</v>
+      </c>
+      <c r="AN181">
+        <v>3.08</v>
+      </c>
+      <c r="AO181">
+        <v>1.17</v>
+      </c>
+      <c r="AP181">
+        <v>1.07</v>
+      </c>
+      <c r="AQ181">
+        <v>0.82</v>
+      </c>
+      <c r="AR181">
+        <v>1.53</v>
+      </c>
+      <c r="AS181">
+        <v>0.78</v>
+      </c>
+      <c r="AT181">
+        <v>1.61</v>
+      </c>
+      <c r="AU181">
+        <v>1.17</v>
+      </c>
+      <c r="AV181">
+        <v>1.65</v>
+      </c>
+      <c r="AW181">
+        <v>2.82</v>
+      </c>
+      <c r="AX181">
+        <v>6.55</v>
+      </c>
+      <c r="AY181">
+        <v>11.5</v>
+      </c>
+      <c r="AZ181">
+        <v>1.18</v>
+      </c>
+      <c r="BA181">
+        <v>1.2</v>
+      </c>
+      <c r="BB181">
+        <v>1.41</v>
+      </c>
+      <c r="BC181">
+        <v>1.74</v>
+      </c>
+      <c r="BD181">
+        <v>2.15</v>
+      </c>
+      <c r="BE181">
+        <v>2.93</v>
+      </c>
+      <c r="BF181">
+        <v>4</v>
+      </c>
+      <c r="BG181">
+        <v>7</v>
+      </c>
+      <c r="BH181">
+        <v>6</v>
+      </c>
+      <c r="BI181">
+        <v>5</v>
+      </c>
+      <c r="BJ181">
+        <v>10</v>
+      </c>
+      <c r="BK181">
         <v>12</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Republic of Ireland Premier Division_2022.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Republic of Ireland Premier Division_2022.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
